--- a/biology/Botanique/Gleditsia/Gleditsia.xlsx
+++ b/biology/Botanique/Gleditsia/Gleditsia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gleditsia est un genre d'arbres de la famille des Fabaceae originaire d'Amérique du Nord et d'Asie. Ce genre a été nommé en l'honneur de Johann Gottlieb Gleditsch, directeur du Jardin botanique de Berlin, qui mourut en 1786. Comme le robinier, l'arbre est doté d'épines (issues de la transformation des stipules, des folioles ou des rameaux) qui servent de défense des plantes contre les herbivores[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gleditsia est un genre d'arbres de la famille des Fabaceae originaire d'Amérique du Nord et d'Asie. Ce genre a été nommé en l'honneur de Johann Gottlieb Gleditsch, directeur du Jardin botanique de Berlin, qui mourut en 1786. Comme le robinier, l'arbre est doté d'épines (issues de la transformation des stipules, des folioles ou des rameaux) qui servent de défense des plantes contre les herbivores.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gleditsia amorphoides, Févier d'Argentine, (Griseb.) Taub.
 Gleditsia aquatica, Originaire du sud-est des États-Unis, en zone humide ou marécageuse (Texas, Floride, Caroline du Nord). Hauteur 15 - 18 m. Marshall
-Gleditsia australis F. B. Forbes &amp; Hemsley. Comme elle est envahissante en Nouvelle-Calédonie, le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat[2].
+Gleditsia australis F. B. Forbes &amp; Hemsley. Comme elle est envahissante en Nouvelle-Calédonie, le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat.
 Gleditsia caspica, Févier de la Caspienne : Originaire de l'Iran (nord), Azerbaïdjan, Caucase, Géorgie. Hauteur 10 - 12 m. feuilles pennées à folioles coriace, ovales légèrement crénelés. Gousses vrillées,  Desf.
 Gleditsia delavayi, Févier de Delavay : Originaire de Chine (sud-ouest). Hauteur 10 m, très longues épines (20 cm), Franchet
 Gleditsia fera, Originaire de Chine (Sud), (Lour.) Merr.
